--- a/测试URL.xlsx
+++ b/测试URL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
-    <t>http://study-perf.qa.netease.com/buy/index.html#/m/apps/user/account/detail</t>
-  </si>
-  <si>
     <t>登录手机号</t>
   </si>
   <si>
@@ -36,12 +33,16 @@
     <t>miniblog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>http://study-perf.qa.netease.com/buy/index.html#/m/apps/user/account/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +55,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -74,14 +83,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -382,9 +394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -392,16 +402,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -409,7 +419,7 @@
         <v>20000000000</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -417,7 +427,7 @@
         <v>20000000001</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -425,7 +435,7 @@
         <v>20000000002</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -433,7 +443,7 @@
         <v>20000000003</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -441,21 +451,24 @@
         <v>20000000004</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="/m/apps/user/account/detail"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
